--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T08:07:04+00:00</t>
+    <t>2024-04-03T09:10:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T09:10:32+00:00</t>
+    <t>2024-04-03T10:16:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T10:16:46+00:00</t>
+    <t>2024-04-03T15:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T15:15:49+00:00</t>
+    <t>2024-04-03T16:22:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T16:22:44+00:00</t>
+    <t>2024-04-03T17:09:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T17:09:56+00:00</t>
+    <t>2024-04-04T08:25:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
+++ b/sd-add-new-fr-core/ig/StructureDefinition-ror-telecom-confidentiality-level.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T08:25:00+00:00</t>
+    <t>2024-04-04T09:30:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
